--- a/Recursivo/Gráficos.xlsx
+++ b/Recursivo/Gráficos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\araga\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\araga\Desktop\Recursivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE24B074-AC68-471B-94CA-ACA1B24096DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95A161A-E348-45E0-9328-CD423729F278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5085" yWindow="3915" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t>N</t>
   </si>
@@ -37,8 +37,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="168" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="171" formatCode="0.000000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -66,8 +78,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,7 +516,583 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Gráfico Tempo de processamento Torre de Hanoi</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Metodo Recursivo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plan1!$A$25:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$B$25:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000000</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>2.125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.093</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000000">
+                  <c:v>0.54700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.000000">
+                  <c:v>0.26600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.000000">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.000000">
+                  <c:v>6.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.000000">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.000000">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.000000">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.000000">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.000000">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.000000">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.000000">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.000000">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.000000">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.000000">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.000000">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.000000">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.000000">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.000000">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.000000">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.000000">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.000000">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.000000">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.000000">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.000000">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.000000">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.000000">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7BAE-4D4F-B4AB-A68C76A3FBCA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="487175280"/>
+        <c:axId val="487176112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="487175280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="487176112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="487176112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="487175280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1037,6 +1628,502 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1070,6 +2157,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF953FF4-ABB4-47C8-AB73-B76C11A2415E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1341,10 +2466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:B12"/>
+  <dimension ref="A4:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1421,8 +2546,239 @@
         <v>7</v>
       </c>
     </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>30</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2.125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>29</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1.093</v>
+      </c>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>28</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.54700000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>25</v>
+      </c>
+      <c r="B30" s="2">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>24</v>
+      </c>
+      <c r="B31" s="2">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>23</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>22</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>21</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>20</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>19</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>18</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>17</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>16</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>15</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>14</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>13</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>12</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>11</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>10</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>9</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>8</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>7</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>